--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/13baqtoDataBrokenURLList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/13baqtoDataBrokenURLList.xlsx
@@ -12,632 +12,1036 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
-  <si>
-    <t>1 95 ID=23305 Provider=IGT Name=100 Pandas cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2 104 ID=2404 Provider=EGT Name=2 Dragons cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3 132 ID=2405 Provider=EGT Name=40 Super Dice cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>4 139 ID=2409 Provider=EGT Name=5 Hot Dice cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>5 143 ID=2407 Provider=EGT Name=50 Horses cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>6 173 ID=23226 Provider=Amatic Name=A Book of Aztec cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>7 186 ID=23225 Provider=Amatic Name=Admiral Nelson cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>8 226 ID=23805 Provider=Amatic Name=All ways Joker cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>9 227 ID=23810 Provider=Amatic Name=All ways Win cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>10 228 ID=23235 Provider=Amatic Name=Allways Fruits cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>11 233 ID=2411 Provider=EGT Name=Amazing Amazonia cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>12 270 ID=23245 Provider=Amatic Name=Arising Phoenix cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>13 271 ID=23014 Provider=QuickSpin Name=Ark of Mystery cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>14 300 ID=23246 Provider=Amatic Name=Aztec Secret cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>15 375 ID=23232 Provider=Amatic Name=Bells on Fire cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>16 376 ID=23247 Provider=Amatic Name=Bells on Fire HOT cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>17 377 ID=23248 Provider=Amatic Name=Bells on Fire ROMBO cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>18 385 ID=23741 Provider=QuickSpin Name=Big Bad Wolf cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>19 389 ID=23725 Provider=QuickSpin Name=Big Bot Crew cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>20 395 ID=23396 Provider=Amatic Name=Big Panda cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>21 402 ID=23249 Provider=Amatic Name=Billyonaire cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>22 403 ID=23803 Provider=Amatic Name=Billy's game cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>23 449 ID=23231 Provider=Amatic Name=Blue Dolphin cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>24 450 ID=2412 Provider=EGT Name=Blue Heart cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>25 486 ID=23227 Provider=Amatic Name=Book of Fortune cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>26 497 ID=23817 Provider=Amatic Name=Book Of Lords cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>27 505 ID=23818 Provider=Amatic Name=Book Of Queen cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>28 588 ID=2414 Provider=EGT Name=Burning Dice cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>29 634 ID=23823 Provider=Amatic Name=Casanova cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>30 636 ID=23289 Provider=IGT Name=Cash Coaster cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>31 650 ID=2416 Provider=EGT Name=Casino Mania cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>32 654 ID=23250 Provider=Amatic Name=Casinova cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>33 660 ID=23290 Provider=IGT Name=Cats cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>34 718 ID=23291 Provider=IGT Name=Cleopatra cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>35 737 ID=23726 Provider=QuickSpin Name=Colossus cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>36 744 ID=23251 Provider=Amatic Name=Cool Diamonds II cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>37 758 ID=23292 Provider=IGT Name=Coyote Moon cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>38 788 ID=23742 Provider=QuickSpin Name=Crystal Queen cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>39 823 ID=23294 Provider=IGT Name=Day of the Dead cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>40 858 ID=23252 Provider=Amatic Name=Diamond Cats cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>41 864 ID=23253 Provider=Amatic Name=Diamond Monkey cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>42 865 ID=23295 Provider=IGT Name=Diamond Queen cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>43 872 ID=23254 Provider=Amatic Name=Diamonds on Fire cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>44 874 ID=2417 Provider=EGT Name=Dice Of Ra cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>45 887 ID=23727 Provider=QuickSpin Name=Divine Dreams cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>46 939 ID=23728 Provider=QuickSpin Name=Dragon Shrine cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>47 951 ID=23255 Provider=Amatic Name=Dragons Kingdom cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>48 953 ID=23236 Provider=Amatic Name=Dragon's Pearl cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>49 968 ID=23729 Provider=QuickSpin Name=Durian Dynamite cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>50 973 ID=23781 Provider=QuickSpin Name=Dwarfs Gone Wild cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>51 988 ID=23730 Provider=QuickSpin Name=Eastern Emeralds cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>52 991 ID=23799 Provider=EGT Name=Egypt Sky cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>53 1023 ID=23806 Provider=Amatic Name=Enchanted Cleopatra cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>54 1056 ID=2418 Provider=EGT Name=Extra Joker cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>55 1057 ID=2420 Provider=EGT Name=Extremely Hot cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>56 1061 ID=23234 Provider=Amatic Name=Eye of Ra cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>57 1072 ID=23731 Provider=QuickSpin Name=Fairy Gate cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>58 1098 ID=23256 Provider=Amatic Name=Fire &amp; Ice cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>59 1107 ID=23296 Provider=IGT Name=Fire Opals cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>60 1152 ID=23237 Provider=Amatic Name=Fortuna's Fruits cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>61 1163 ID=2422 Provider=EGT Name=Fortune Spells cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>62 1264 ID=23297 Provider=IGT Name=Garden Party cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>63 1274 ID=23257 Provider=Amatic Name=Gem Star cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>64 1289 ID=23743 Provider=QuickSpin Name=Genies Touch cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>65 1341 ID=23258 Provider=Amatic Name=Golden Book cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>66 1365 ID=23808 Provider=Amatic Name=Golden Joker cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>67 1390 ID=23021 Provider=QuickSpin Name=Goldilocks &amp; Wild Bears cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>68 1391 ID=23015 Provider=QuickSpin Name=Gold Lab cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>69 1397 ID=2424 Provider=EGT Name=Grace Of Cleopatra cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>70 1398 ID=23298 Provider=IGT Name=Grand Monarch cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>71 1401 ID=23824 Provider=Amatic Name=grandx_original cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>72 1459 ID=23783 Provider=QuickSpin Name=Hidden Valley cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>73 1484 ID=23813 Provider=Amatic Name=Hot 27 dice cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>74 1487 ID=23807 Provider=Amatic Name=Hot 40 cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>75 1488 ID=23812 Provider=Amatic Name=Hot choice cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>76 1495 ID=23822 Provider=Amatic Name=Hot Choice cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>77 1497 ID=23243 Provider=Amatic Name=Hot Diamonds cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>78 1498 ID=23816 Provider=Amatic Name=Hot fruits 100 cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>79 1499 ID=23814 Provider=Amatic Name=Hot Fruits 20 cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>80 1500 ID=23815 Provider=Amatic Name=Hot Fruits 40 cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>81 1507 ID=23259 Provider=Amatic Name=Hot Scatter cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>82 1508 ID=23811 Provider=Amatic Name=Hot scatter dice cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>83 1509 ID=23233 Provider=Amatic Name=Hot Seven cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>84 1519 ID=23260 Provider=Amatic Name=Hot Star cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>85 1520 ID=23732 Provider=QuickSpin Name=Hot Sync cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>86 1523 ID=23242 Provider=Amatic Name=Hot Twenty cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>87 1529 ID=23802 Provider=Amatic Name=Hottest Fruits 20 cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>88 1556 ID=23744 Provider=QuickSpin Name=Illuminous cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>89 1569 ID=2425 Provider=EGT Name=Inca Gold II cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>90 1595 ID=23784 Provider=QuickSpin Name=Ivan and the Immortal King cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>91 1626 ID=23299 Provider=IGT Name=Jewel of the Arts cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>92 1652 ID=23785 Provider=QuickSpin Name=Joker Strike cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>93 1690 ID=23795 Provider=EGT Name=Kangaroo Land cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>94 1693 ID=2426 Provider=EGT Name=Kashmir Gold cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>95 1720 ID=23300 Provider=IGT Name=Kitty Glitter cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>96 1733 ID=23238 Provider=Amatic Name=Lady Joker cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>97 1777 ID=23724 Provider=QuickSpin Name=Leprechaun Hills cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>98 1822 ID=23229 Provider=Amatic Name=Lovely Lady cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>99 1829 ID=2427 Provider=EGT Name=Lucky And Wild cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>100 1831 ID=23261 Provider=Amatic Name=Lucky Bells cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>101 1838 ID=23228 Provider=Amatic Name=Lucky Coin cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>102 1852 ID=2428 Provider=EGT Name=Lucky Hot cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>103 1855 ID=23820 Provider=Amatic Name=Lucky Joker 20 cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>104 1856 ID=23821 Provider=Amatic Name=Lucky Joker 40 cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>105 1857 ID=23819 Provider=Amatic Name=Lucky Joker 5 cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>106 1910 ID=23230 Provider=Amatic Name=Magic Idol cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>107 1919 ID=23262 Provider=Amatic Name=Magic Owl cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>108 1922 ID=23804 Provider=Amatic Name=Magic Scatter cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>109 1941 ID=2429 Provider=EGT Name=Majestic Forest cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>110 1959 ID=23301 Provider=IGT Name=Masques of San Marco cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>111 1968 ID=23302 Provider=IGT Name=Mayan Riches cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>112 1970 ID=23018 Provider=QuickSpin Name=Mayana cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>113 1994 ID=23241 Provider=Amatic Name=Mermaid's Gold cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>114 1995 ID=23263 Provider=Amatic Name=Merry Fruits cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>115 2011 ID=23019 Provider=QuickSpin Name=Mighty Arthur cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>116 2027 ID=23303 Provider=IGT Name=Miss Red cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>117 2073 ID=23733 Provider=QuickSpin Name=Mountain King cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>118 2120 ID=2430 Provider=EGT Name=Neon Dice cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>119 2148 ID=23304 Provider=IGT Name=Noahs Ark cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>120 2151 ID=23734 Provider=QuickSpin Name=Northern Sky cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>121 2171 ID=2431 Provider=EGT Name=Oil Company II cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>122 2196 ID=23306 Provider=IGT Name=Pamplona cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>123 2207 ID=23809 Provider=Amatic Name=Party Night cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>124 2209 ID=23264 Provider=Amatic Name=Party Time cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>125 2244 ID=23017 Provider=QuickSpin Name=Phoenix Sun cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>126 2249 ID=23735 Provider=QuickSpin Name=Pied Piper cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>127 2273 ID=23736 Provider=QuickSpin Name=Pirates Charm cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>128 2330 ID=23307 Provider=IGT Name=Prowling Panther cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>129 2391 ID=23011 Provider=QuickSpin Name=Razortooth cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>130 2395 ID=23265 Provider=Amatic Name=Red Chilli cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>131 2447 ID=23796 Provider=EGT Name=Retro Style cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>132 2481 ID=2433 Provider=EGT Name=Rise Of Ra cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>133 2522 ID=23593 Provider=Amatic Name=Roulette Royal cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>134 2535 ID=2434 Provider=EGT Name=Royal Secrets cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>135 2536 ID=23240 Provider=Amatic Name=Royal Unicorn cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>136 2604 ID=23012 Provider=QuickSpin Name=Second Strike cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>137 2614 ID=23013 Provider=QuickSpin Name=Sevens High cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>138 2640 ID=23308 Provider=IGT Name=Siberian Storm cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>139 2721 ID=23016 Provider=QuickSpin Name=Spinions Beach Party cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>140 2741 ID=23309 Provider=IGT Name=Star Trek cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>141 2752 ID=23020 Provider=QuickSpin Name=Sticky Bandits cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>142 2778 ID=23310 Provider=IGT Name=Sumatran Storm cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>143 2854 ID=23737 Provider=QuickSpin Name=Tales of Doctor Dolittle cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>144 2891 ID=23797 Provider=EGT Name=The Big Journey cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>145 2915 ID=23782 Provider=QuickSpin Name=The Grand cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>146 2917 ID=2436 Provider=EGT Name=The Great Egypt cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>147 3072 ID=23266 Provider=Amatic Name=Tweety Birds cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>148 3083 ID=2438 Provider=EGT Name=Ultimate Hot cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>149 3085 ID=23801 Provider=Amatic Name=Ultra Seven cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>150 3113 ID=23311 Provider=IGT Name=Vegas Baby cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>151 3154 ID=23738 Provider=QuickSpin Name=Volcano Riches cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>152 3165 ID=23312 Provider=IGT Name=Water Dragons cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>153 3176 ID=23313 Provider=IGT Name=Western Belles cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>154 3199 ID=23739 Provider=QuickSpin Name=Wild Chase cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>155 3203 ID=23267 Provider=Amatic Name=Wild Dragon cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>156 3233 ID=23268 Provider=Amatic Name=Wild Respin cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>157 3238 ID=23244 Provider=Amatic Name=Wild Stars cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>158 3251 ID=23314 Provider=IGT Name=Wild Wolf cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>159 3264 ID=23269 Provider=Amatic Name=Wild Shark cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>160 3275 ID=23740 Provider=QuickSpin Name=Wins of Fortune cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>161 3284 ID=2440 Provider=EGT Name=Witches Charm cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>162 3296 ID=23239 Provider=Amatic Name=Wolf Moon cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>163 3301 ID=23315 Provider=IGT Name=Wolf Run cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>164 3344 ID=2441 Provider=EGT Name=Zodiac Wheel cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
+  <si>
+    <t>1 73 ID=23305 Provider=Platipus Name=1001 Spins cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2 86 ID=2404 Provider=Yggdrasil Name=2 Gods Zeus VS Thor cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3 87 ID=28843 Provider=Betsoft Name=2 Million B.C. cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>4 108 ID=2405 Provider=GameArt Name=40 Super Heated Sevens cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5 120 ID=2409 Provider=PlaysonDirect Name=5 Super Sevens &amp; Fruits: 6 reels cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>6 122 ID=2407 Provider=WorldMatch Name=50s PinUp HD cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>7 150 ID=23226 Provider=Betsoft Name=A Christmas Carol cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>8 162 ID=23225 Provider=Evoplay Name=Aeronauts cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>9 199 ID=23805 Provider=Amatic Name=All ways Win cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>10 200 ID=23810 Provider=Habanero Name=AllForOne cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>11 202 ID=25700 Provider=Yggdrasil Name=AllStarKnockoutUltraGamble cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>12 203 ID=25194 Provider=Amatic Name=Allways Fruits cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>13 204 ID=23235 Provider=NetEnt Name=Aloha cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>14 209 ID=2411 Provider=ISoftBet Name=Ambiance cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>15 214 ID=75340 Provider=Betsoft Name=American Roulette cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>16 246 ID=23245 Provider=QuickSpin Name=Ark of Mystery cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>17 247 ID=23014 Provider=Betsoft Name=Arrival cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>18 250 ID=25434 Provider=Yggdrasil Name=Arthur's Fortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>19 260 ID=27172 Provider=GameArt Name=Atlantis World cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>20 274 ID=23246 Provider=Spinomenal Name=Aztec Spell - Forgotten Empire cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>21 277 ID=25549 Provider=Platipus Name=AztecCoins cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>22 294 ID=75977 Provider=Betsoft Name=BackToVenus cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>23 341 ID=23232 Provider=Amatic Name=Bells on Fire HOT cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>24 342 ID=23247 Provider=Amatic Name=Bells on Fire ROMBO cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>25 343 ID=23248 Provider=WACS Name=BellyDance cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>26 348 ID=28341 Provider=Yggdrasil Name=Bicicleta cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>27 350 ID=23741 Provider=PushGaming Name=Big Bamboo cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>28 353 ID=23725 Provider=Yggdrasil Name=Big Bucks Bandits Megaways cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>29 356 ID=23396 Provider=Spadegaming Name=Big Prosperity SA cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>30 368 ID=23249 Provider=Amatic Name=Billy's game cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>31 369 ID=23803 Provider=Habanero Name=BirdofThunder cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>32 409 ID=23231 Provider=EGT Name=Blue Heart cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>33 410 ID=2412 Provider=Spinomenal Name=Blue Panther cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>34 440 ID=23227 Provider=PlaysonDirect Name=Book of Gold 2: Double Hit cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>35 447 ID=23817 Provider=Spinomenal Name=Book Of Misr cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>36 455 ID=23818 Provider=Spinomenal Name=Book Of Rampage cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>37 500 ID=26042 Provider=BoomingGames Name=BoomingGold cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>38 514 ID=29944 Provider=Yggdrasil Name=BrazilBomba cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>39 516 ID=25045 Provider=ISoftBet Name=Brides of Dracula Hold &amp; Win cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>40 518 ID=27997 Provider=Genii Name=Bright Star cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>41 540 ID=2414 Provider=GameArt Name=Burning Flame cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>42 565 ID=25548 Provider=GameArt Name=Captain Candy cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>43 578 ID=23823 Provider=ISoftBet Name=Cash Camel cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>44 580 ID=23289 Provider=Leander Name=Cash Encounters cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>45 590 ID=28162 Provider=RedTiger Name=cashvolt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>46 592 ID=28499 Provider=PlaynGo Name=Casino Hold'em cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>47 594 ID=2416 Provider=Amatic Name=Casinova cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>48 595 ID=23250 Provider=NoLimitCity Name=CasinoWinSpin cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>49 601 ID=23290 Provider=PlaynGo Name=CatsandCash cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>50 623 ID=27237 Provider=PlaysonDirect Name=Chicago Gangsters cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>51 625 ID=25876 Provider=Spinomenal Name=Childhood Sweets cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>52 642 ID=28832 Provider=PlaynGo Name=ChronosJoker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>53 655 ID=23291 Provider=DragonGaming Name=Cleopatra's Fortune cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>54 660 ID=28338 Provider=PlaysonDirect Name=CloverRiches cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>55 667 ID=26294 Provider=Habanero Name=ColossalGems cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>56 670 ID=23726 Provider=ISoftBet Name=Colossus: Hold &amp; Win cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>57 677 ID=23251 Provider=Microgaming Name=CoolWolf cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>58 681 ID=26401 Provider=Leander Name=Cosmic Fusion cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>59 682 ID=29318 Provider=Thunderkick Name=Cosmic Voyager cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>60 688 ID=23292 Provider=Habanero Name=CoyoteCrash cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>61 695 ID=29619 Provider=Igrosoft Name=Crazy Monkey cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>62 698 ID=26397 Provider=Microgaming Name=CrazyChameleons cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>63 699 ID=27706 Provider=RedTiger Name=crazygenie cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>64 715 ID=23742 Provider=Thunderkick Name=Crystal Quest 1: DEEP JUNGLE cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>65 732 ID=27236 Provider=Spadegaming Name=Da Fu Xiao Fu cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>66 751 ID=23294 Provider=NetEnt Name=Dazzleme cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>67 762 ID=26332 Provider=PlaynGo Name=Def Leppard Hysteria cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>68 782 ID=23252 Provider=WorldMatch Name=Diamond Croupier HD cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>69 788 ID=23253 Provider=IGT Name=Diamond Queen cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>70 789 ID=23295 Provider=BoomingGames Name=Diamond Riches cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>71 794 ID=23254 Provider=PlaynGo Name=DiamondVortex cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>72 797 ID=2417 Provider=Apollo Name=Dice81 cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>73 809 ID=23727 Provider=Fugaso Name=DivineCarnival cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>74 818 ID=28156 Provider=BoomingGames Name=Dolphin'sLuck2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>75 822 ID=25428 Provider=Spinomenal Name=Donut Rush cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>76 831 ID=26405 Provider=Yggdrasil Name=DoubleDragons cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>77 834 ID=27234 Provider=NetEnt Name=DoubleStac cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>78 836 ID=27761 Provider=Microgaming Name=DoubleWammy(Flash) cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>79 850 ID=23728 Provider=ISoftBet Name=Dragon Stone cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>80 866 ID=23255 Provider=Amatic Name=Dragon's Pearl cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>81 867 ID=23236 Provider=WorldMatch Name=Dragon's Reels HD cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>82 885 ID=23729 Provider=Yggdrasil Name=Dwarf Mine cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>83 887 ID=26979 Provider=QuickSpin Name=Dwarfs Gone Wild cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>84 888 ID=23781 Provider=GameArt Name=Dynamite Fruits Deluxe cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>85 902 ID=23730 Provider=Booongo Name=Eggs of Gold cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>86 920 ID=28836 Provider=Genii Name=Elementium cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>87 931 ID=23806 Provider=PlaynGo Name=EnchantedCrystals cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>88 958 ID=2418 Provider=EGT Name=Extremely Hot cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>89 959 ID=2420 Provider=PlaynGo Name=Eye of Atum cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>90 963 ID=23234 Provider=ISoftBet Name=Eye of the Amulet cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>91 972 ID=23731 Provider=NetEnt Name=Fairy Red cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>92 986 ID=26508 Provider=PlaynGo Name=Feline Fury cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>93 995 ID=23256 Provider=PushGaming Name=Fire Hopper cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>94 1000 ID=23296 Provider=PlaynGo Name=Fire Toad cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>95 1042 ID=23237 Provider=Thunderkick Name=Fortune Cats Golden Stacks cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>96 1048 ID=2422 Provider=Leander Name=Fortune Teller's Charm cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>97 1071 ID=26379 Provider=Habanero Name=FrontierFortunes cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>98 1092 ID=28155 Provider=Evoplay Name=FruitBurst cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>99 1113 ID=25520 Provider=Spinomenal Name=FruitsDeluxeChristmasEdition cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>100 1119 ID=26407 Provider=Thunderkick Name=FruitWarp cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>101 1137 ID=25497 Provider=Microgaming Name=GameofThrones(243Ways) cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>102 1146 ID=23297 Provider=Fugaso Name=GatesofHell cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>103 1153 ID=29549 Provider=Amatic Name=Gem Star cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>104 1154 ID=23257 Provider=WACS Name=Gemcharm cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>105 1165 ID=26492 Provider=RedTiger Name=gemtastic cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>106 1169 ID=23743 Provider=Betsoft Name=Genie'sFortune cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>107 1183 ID=75277 Provider=Spinomenal Name=Glowing Fruits cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>108 1187 ID=26357 Provider=Spinomenal Name=Goddess Of Lotus cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>109 1204 ID=23015 Provider=Evoplay Name=Gold Of Sirens cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>110 1213 ID=23258 Provider=ISoftBet Name=Golden Buffalo Double Up cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>111 1227 ID=23808 Provider=ISoftBet Name=Golden Jokers Double Up cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>112 1239 ID=29192 Provider=WACS Name=GoldenBullets cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>113 1257 ID=23021 Provider=PlaynGo Name=GoldKing cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>114 1269 ID=2424 Provider=IGT Name=Grand Monarch cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>115 1270 ID=23298 Provider=Fugaso Name=GrandSumo cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>116 1271 ID=26394 Provider=RedTiger Name=grandwheel cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>117 1273 ID=23824 Provider=Habanero Name=GrapeEscape cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>118 1292 ID=25556 Provider=Spinomenal Name=Hallow Pick (Scratch Card) cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>119 1295 ID=27697 Provider=LuckyGaming Name=Halloween Night cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>120 1302 ID=27228 Provider=Habanero Name=HappiestChristmasTree cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>121 1326 ID=23783 Provider=NetEnt Name=hiddencoinsofegypt cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>122 1328 ID=27628 Provider=Spadegaming Name=Highway Fortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>123 1337 ID=27226 Provider=LuckyGaming Name=Holy Beast cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>124 1346 ID=26353 Provider=Apollo Name=HorrorJoker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>125 1348 ID=75171 Provider=Amatic Name=Hot 27 dice cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>126 1349 ID=23813 Provider=NoLimitCity Name=Hot 4 Cash cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>127 1351 ID=23807 Provider=PlaynGo Name=Hot Bingo cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>128 1356 ID=23812 Provider=Amatic Name=Hot Choice cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>129 1357 ID=23822 Provider=PlaysonDirect Name=Hot Coins: Hold and Win cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>130 1359 ID=23243 Provider=Amatic Name=Hot fruits 100 cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>131 1360 ID=23816 Provider=Amatic Name=Hot Fruits 20 cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>132 1361 ID=23814 Provider=Amatic Name=Hot Fruits 40 cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>133 1362 ID=23815 Provider=NoLimitCity Name=Hot Nudge cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>134 1364 ID=23259 Provider=Amatic Name=Hot scatter dice cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>135 1365 ID=23811 Provider=Amatic Name=Hot Seven cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>136 1366 ID=23233 Provider=ISoftBet Name=Hot Shots cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>137 1372 ID=23260 Provider=QuickSpin Name=Hot Sync cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>138 1373 ID=23732 Provider=Evoplay Name=Hot Triple Seven Specials cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>139 1375 ID=23242 Provider=NoLimitCity Name=Hot4Cash cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>140 1385 ID=23802 Provider=Evoplay Name=HotTripleSevens cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>141 1395 ID=29981 Provider=Evoplay Name=HungryNight cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>142 1400 ID=28842 Provider=Yggdrasil Name=Hypernova 10K Ways cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>143 1406 ID=25767 Provider=WACS Name=IceCreamVan cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>144 1411 ID=23744 Provider=ISoftBet Name=Illusions2 cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>145 1415 ID=29983 Provider=ISoftBet Name=Imperial Wealth cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>146 1422 ID=2425 Provider=TomHorn Name=Inca's Treasure cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>147 1446 ID=23784 Provider=NetEnt Name=Jack And Beans Talk cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>148 1460 ID=29948 Provider=PushGaming Name=Jammin Jars cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>149 1468 ID=28167 Provider=IGT Name=Jewel of the Arts cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>150 1469 ID=23299 Provider=Fugaso Name=Jewel Sea Pirate Riches cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>151 1495 ID=23785 Provider=PushGaming Name=Joker Troupe cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>152 1533 ID=2426 Provider=Betsoft Name=KawaiiKitty cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>153 1555 ID=23300 Provider=GameArt Name=Kitty Twins cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>154 1557 ID=26388 Provider=Habanero Name=KnockoutFootball cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>155 1568 ID=29345 Provider=Amatic Name=Lady Joker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>156 1569 ID=23238 Provider=Yggdrasil Name=Lady Merlin Lightning Chase cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>157 1578 ID=26490 Provider=RedTiger Name=laserfruit cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>158 1587 ID=28655 Provider=ISoftBet Name=Legend of Loki cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>159 1599 ID=27220 Provider=Genii Name=LegendsofGreece cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>160 1606 ID=23724 Provider=Platipus Name=Leprechaun’s Coins cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>161 1612 ID=76131 Provider=Leander Name=Light Racers cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>162 1616 ID=26443 Provider=Spinomenal Name=Lilith'sPassion cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>163 1641 ID=29601 Provider=WorldMatch Name=Lotus Luck cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>164 1650 ID=26471 Provider=Amatic Name=Lovely Lady cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>165 1651 ID=23229 Provider=Leander Name=Low Hanging Fruit cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>166 1657 ID=2427 Provider=NetEnt Name=Lucky Angler cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>167 1659 ID=23261 Provider=Spadegaming Name=Lucky Cai Shen cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>168 1665 ID=23228 Provider=GameArt Name=Lucky Coins cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>169 1671 ID=2428 Provider=Spinomenal Name=Lucky Jack – Lost Jungle cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>170 1674 ID=23820 Provider=Amatic Name=Lucky Joker 40 cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>171 1675 ID=23821 Provider=Amatic Name=Lucky Joker 5 cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>172 1676 ID=23819 Provider=Spadegaming Name=Lucky Koi cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>173 1701 ID=26663 Provider=Platipus Name=LuckyMoney cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>174 1704 ID=25212 Provider=Microgaming Name=LuckyTwins cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>175 1705 ID=27896 Provider=RedTiger Name=luckywizard cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>176 1720 ID=23230 Provider=Spadegaming Name=Magic Kitty cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>177 1726 ID=23262 Provider=NetEnt Name=Magic Portals cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>178 1729 ID=23804 Provider=Spadegaming Name=Magical Lamp cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>179 1734 ID=26429 Provider=Leander Name=MagicGemsDeluxe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>180 1743 ID=2429 Provider=ISoftBet Name=Majestic Gold Megaways cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>181 1759 ID=23301 Provider=PlaynGo Name=Matsuri cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>182 1765 ID=23302 Provider=QuickSpin Name=Mayana cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>183 1766 ID=23018 Provider=RedTiger Name=mayangods cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>184 1771 ID=25141 Provider=Spadegaming Name=Mega 7 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>185 1773 ID=29273 Provider=WorldMatch Name=Mega Jack HD cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>186 1776 ID=27439 Provider=PlaysonDirect Name=MegaBurningWins:27ways cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>187 1781 ID=26385 Provider=NoLimitCity Name=Mental cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>188 1787 ID=23241 Provider=PlaynGo Name=Mermaid'sDiamond cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>189 1789 ID=23263 Provider=PlaynGo Name=MerryXmas cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>190 1801 ID=23019 Provider=BoomingGames Name=Mighty Gorilla cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>191 1817 ID=23303 Provider=PlaynGo Name=MissionCash cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>192 1859 ID=23733 Provider=Habanero Name=MountMazuma cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>193 1868 ID=26424 Provider=Spadegaming Name=Muay Thai Fighter cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>194 1871 ID=25664 Provider=PlaynGo Name=Multifruit81 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>195 1899 ID=75789 Provider=GameArt Name=Nefertiti's Nile cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>196 1901 ID=2430 Provider=NetEnt Name=Neon Staxx cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>197 1913 ID=26642 Provider=Evoplay Name=Night of the Living Tales cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>198 1924 ID=26469 Provider=WorldMatch Name=Nile's Mystery cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>199 1927 ID=28345 Provider=PlaynGo Name=NinjaFruits cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>200 1931 ID=23304 Provider=Genii Name=NordicWild cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>201 1934 ID=23734 Provider=Thunderkick Name=NotEnoughKittens cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>202 1943 ID=28960 Provider=BoomingGames Name=Ocean Drive cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>203 1955 ID=2431 Provider=NoLimitCity Name=Oktoberfest cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>204 1958 ID=26491 Provider=Booongo Name=OlympianGods cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>205 1975 ID=26273 Provider=Betsoft Name=Pai Gow cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>206 1978 ID=23306 Provider=Spadegaming Name=Pan Fairy cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>207 1991 ID=23264 Provider=RedTiger Name=pathofdestiny cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>208 2024 ID=23017 Provider=RedTiger Name=phoenixfirepowerreels cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>209 2028 ID=27630 Provider=Genii Name=PiecesofEight cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>210 2030 ID=23735 Provider=Platipus Name=Piedra del Sol cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>211 2053 ID=23736 Provider=Yggdrasil Name=Pirates:SmugglersParadise cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>212 2058 ID=26507 Provider=PlaynGo Name=PlanetFortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>213 2066 ID=26236 Provider=Evoplay Name=Poker Teen Patti cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>214 2073 ID=25646 Provider=Spinomenal Name=Poseidon’s Rising - 15 Lines cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>215 2080 ID=26346 Provider=Ganapati Name=PowerofElements cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>216 2084 ID=27214 Provider=Habanero Name=Presto! cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>217 2100 ID=23307 Provider=Habanero Name=PuckerUpPrince cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>218 2106 ID=27212 Provider=NoLimitCity Name=Punk Rocker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>219 2149 ID=27210 Provider=PlaynGo Name=RainforestMagic cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>220 2157 ID=23011 Provider=PlaynGo Name=Reactoonz cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>221 2161 ID=23265 Provider=Betsoft Name=Red Dog cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>222 2174 ID=27209 Provider=Yggdrasil Name=Reel Desire cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>223 2175 ID=29346 Provider=Leander Name=Reel Holidays cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>224 2178 ID=27853 Provider=Genii Name=Reelin'&amp;Rockin' cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>225 2190 ID=27207 Provider=Igrosoft Name=Resident cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>226 2207 ID=27741 Provider=Microgaming Name=RetroReelsDiamondGlitz cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>227 2209 ID=27745 Provider=Microgaming Name=RetroReelsExtremeHeat(Flash) cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>228 2216 ID=27765 Provider=Spadegaming Name=Rich Cai Shen cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>229 2234 ID=2433 Provider=Yggdrasil Name=Rise of the Valkyrie Splitz cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>230 2246 ID=28054 Provider=Genii Name=RoadTrip cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>231 2250 ID=26410 Provider=Yggdrasil Name=Robin - Sherwood Marauders cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>232 2256 ID=28171 Provider=WorldMatch Name=Robotika HD cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>233 2277 ID=75969 Provider=Yggdrasil Name=Roulette Evolution VIP cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>234 2278 ID=75968 Provider=Amatic Name=Roulette Royal cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>235 2279 ID=23593 Provider=PlaysonDirect Name=Roulette with Track cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>236 2290 ID=2434 Provider=Amatic Name=Royal Unicorn cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>237 2291 ID=23240 Provider=Genii Name=RoyalBanquet cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>238 2305 ID=75005 Provider=PlaynGo Name=Safari of Wealth cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>239 2311 ID=26418 Provider=PlaynGo Name=SailsofGold cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>240 2330 ID=27831 Provider=Genii Name=SassySpies cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>241 2356 ID=23012 Provider=Spinomenal Name=Secret Cupcakes cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>242 2363 ID=23013 Provider=PlaysonDirect Name=Sevens&amp;Fruits cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>243 2370 ID=26414 Provider=Leander Name=Shang Dynasty cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>244 2392 ID=23308 Provider=Habanero Name=Sicbo cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>245 2398 ID=26629 Provider=Betsoft Name=Single Deck Blackjack cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>246 2403 ID=29828 Provider=Spinomenal Name=Siren’sTreasuresII15LinesSeries cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>247 2421 ID=25764 Provider=Apollo Name=SmilingJokerII cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>248 2423 ID=26391 Provider=BoomingGames Name=SnailRace cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>249 2458 ID=23016 Provider=Fugaso Name=SpinJoker,Spin! cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>250 2471 ID=28377 Provider=Greentube Name=SpringQueen cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>251 2480 ID=23309 Provider=NetEnt Name=StarBurst cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>252 2487 ID=75841 Provider=NetEnt Name=Steam Tower cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>253 2491 ID=23020 Provider=BoomingGames Name=Sticky Bombs cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>254 2517 ID=23310 Provider=Ganapati Name=Sumi-e cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>255 2526 ID=27270 Provider=Booongo Name=SunofEgypt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>256 2528 ID=26425 Provider=Thunderkick Name=SunsetDelight cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>257 2550 ID=26338 Provider=Yggdrasil Name=SuperHeroes cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>258 2551 ID=27201 Provider=WorldMatch Name=SuperHeroes HD cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>259 2562 ID=29322 Provider=Spadegaming Name=Sweet Bakery cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>260 2574 ID=28835 Provider=Evoplay Name=Syndicate cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>261 2585 ID=23737 Provider=Greentube Name=TalesOfDarkness cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>262 2608 ID=29169 Provider=Evoplay Name=TexasHold’emPoker3D cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>263 2616 ID=29927 Provider=Genii Name=The Cash King cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>264 2627 ID=23782 Provider=EGT Name=The Great Egypt cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>265 2628 ID=2436 Provider=ISoftBet Name=The Great Wall cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>266 2657 ID=28335 Provider=Habanero Name=TheBigDeal cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>267 2666 ID=26399 Provider=Betsoft Name=TheGoldenOwlofAthena cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>268 2674 ID=27707 Provider=Habanero Name=TheKoiGate cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>269 2678 ID=26654 Provider=NetEnt Name=Theme Park cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>270 2741 ID=26628 Provider=RedTiger Name=totemlightningpowerreels cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>271 2754 ID=26364 Provider=Habanero Name=TreasureTomb cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>272 2773 ID=26404 Provider=Fugaso Name=TrumpItDeluxe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>273 2781 ID=23266 Provider=Spinomenal Name=Twin Diamonds cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>274 2792 ID=2438 Provider=ISoftBet Name=Ultimate Super Reels cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>275 2794 ID=23801 Provider=Platipus Name=Un Dia De Muertos cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>276 2802 ID=26600 Provider=Evoplay Name=USSRSeventies cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>277 2818 ID=23311 Provider=ISoftBet Name=Vegas High Roller cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>278 2828 ID=28838 Provider=NetEnt Name=Victorious cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>279 2834 ID=29342 Provider=Genii Name=Vikingdom cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>280 2853 ID=23738 Provider=WACS Name=VoxSlot cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>281 2864 ID=23312 Provider=Platipus Name=Ways of Gauls cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>282 2874 ID=23313 Provider=ISoftBet Name=Western Gold Megaways cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>283 2892 ID=23739 Provider=Platipus Name=Wild Crowns cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>284 2894 ID=23267 Provider=Betsoft Name=Wild Drops cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>285 2906 ID=23268 Provider=Amatic Name=Wild Shark cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>286 2907 ID=23269 Provider=Amatic Name=Wild Stars cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>287 2908 ID=23244 Provider=PushGaming Name=Wild Swarm cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>288 2915 ID=29980 Provider=BoomingGames Name=Wild Wild Vegas cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>289 2918 ID=23314 Provider=Genii Name=WildBerry cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>290 2964 ID=23740 Provider=Microgaming Name=WinSumDimSum cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>291 2967 ID=27191 Provider=RedTiger Name=winterwonders cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>292 2971 ID=28356 Provider=EGT Name=Witches Charm cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>293 2972 ID=2440 Provider=BoomingGames Name=WitchesWildBrew cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>294 2983 ID=23239 Provider=Booongo Name=Wolf Night cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>295 2986 ID=23315 Provider=Booongo Name=Wolf Saga cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>296 2998 ID=27147 Provider=Yggdrasil Name=Word Of Thoth cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>297 2999 ID=29561 Provider=Genii Name=WorldsatWar cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>298 3013 ID=26421 Provider=Spinomenal Name=Year Of The Tiger cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>299 3028 ID=2441 Provider=Spadegaming Name=Zombie party cod=21 description={"name":"Not Found","message":"This currency is not enabled for your contract","code":0,"status":404} ResponseObject=null</t>
   </si>
 </sst>
 </file>
@@ -682,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A164"/>
+  <dimension ref="A1:A299"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1511,6 +1915,681 @@
         <v>163</v>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
